--- a/user_input/cablecom_poles.xlsx
+++ b/user_input/cablecom_poles.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_614D13B363768D23243C01462B37F4A8CCBF3D26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14260D67-2347-4229-A551-B648FF37869A}"/>
+  <bookViews>
+    <workbookView xWindow="-22008" yWindow="156" windowWidth="21420" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="cablecom_poles" state="visible" r:id="rId4"/>
+    <sheet name="cablecom_poles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -454,7 +458,7 @@
     <t>4e7d67e3-f4ea-4f45-85f9-ef21350a1917</t>
   </si>
   <si>
-    <t xml:space="preserve">CATV second attach: 2201
+    <t>CATV second attach: 2201
 Telco second attach: 2011</t>
   </si>
   <si>
@@ -650,14 +654,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,8 +684,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,9 +1027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD10"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BO14" sqref="BO14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1041,6 +1053,9 @@
     <col min="31" max="31" width="37" customWidth="1"/>
     <col min="38" max="38" width="185" customWidth="1"/>
     <col min="44" max="44" width="14" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="5" customWidth="1"/>
     <col min="68" max="69" width="4" customWidth="1"/>
     <col min="96" max="96" width="51" customWidth="1"/>
@@ -1480,7 +1495,7 @@
         <v>128</v>
       </c>
       <c r="H3">
-        <v>48.429351</v>
+        <v>48.429350999999997</v>
       </c>
       <c r="I3">
         <v>-122.607454</v>
@@ -1552,7 +1567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -1572,10 +1587,10 @@
         <v>140</v>
       </c>
       <c r="H4">
-        <v>48.428482</v>
+        <v>48.428482000000002</v>
       </c>
       <c r="I4">
-        <v>-122.607391</v>
+        <v>-122.60739100000001</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1625,7 +1640,7 @@
       <c r="BZ4">
         <v>2304</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CR4" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CT4" t="s">
@@ -1655,7 +1670,7 @@
         <v>151</v>
       </c>
       <c r="H5">
-        <v>48.427894</v>
+        <v>48.427894000000002</v>
       </c>
       <c r="I5">
         <v>-122.607404</v>
@@ -1738,10 +1753,10 @@
         <v>162</v>
       </c>
       <c r="H6">
-        <v>48.427316</v>
+        <v>48.427315999999998</v>
       </c>
       <c r="I6">
-        <v>-122.607419</v>
+        <v>-122.60741899999999</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -1821,10 +1836,10 @@
         <v>172</v>
       </c>
       <c r="H7">
-        <v>48.426463</v>
+        <v>48.426462999999998</v>
       </c>
       <c r="I7">
-        <v>-122.60743</v>
+        <v>-122.60742999999999</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -1904,7 +1919,7 @@
         <v>182</v>
       </c>
       <c r="H8">
-        <v>48.425887</v>
+        <v>48.425887000000003</v>
       </c>
       <c r="I8">
         <v>-122.607444</v>
@@ -2073,7 +2088,7 @@
         <v>203</v>
       </c>
       <c r="H10">
-        <v>48.424899</v>
+        <v>48.424899000000003</v>
       </c>
       <c r="I10">
         <v>-122.607439</v>
@@ -2135,6 +2150,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/user_input/cablecom_poles.xlsx
+++ b/user_input/cablecom_poles.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_614D13B363768D23243C01462B37F4A8CCBF3D26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14260D67-2347-4229-A551-B648FF37869A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_614D13B363768D23243C01462B37F4A8CCBF3D26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B4BD09-6503-4C63-B941-654229D45A91}"/>
   <bookViews>
-    <workbookView xWindow="-22008" yWindow="156" windowWidth="21420" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cablecom_poles" sheetId="1" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BO14" sqref="BO14"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,18 +1048,25 @@
     <col min="18" max="18" width="13" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
     <col min="23" max="23" width="37" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="37" customWidth="1"/>
-    <col min="27" max="27" width="37" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="37" customWidth="1"/>
     <col min="38" max="38" width="185" customWidth="1"/>
     <col min="44" max="44" width="14" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="5" customWidth="1"/>
-    <col min="68" max="69" width="4" customWidth="1"/>
+    <col min="67" max="67" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="51" customWidth="1"/>
-    <col min="98" max="98" width="4" customWidth="1"/>
+    <col min="98" max="98" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="4" customWidth="1"/>
   </cols>
   <sheetData>

--- a/user_input/cablecom_poles.xlsx
+++ b/user_input/cablecom_poles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_614D13B363768D23243C01462B37F4A8CCBF3D26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B4BD09-6503-4C63-B941-654229D45A91}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_614D13B363768D23243C01462B37F4A8CCBF3D26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37918731-39BF-4FAA-99F9-0C3CD26B754A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,6 +704,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ9" sqref="BQ9"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,14 +1061,24 @@
     <col min="44" max="44" width="14" customWidth="1"/>
     <col min="49" max="49" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5" customWidth="1"/>
+    <col min="63" max="63" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="51" customWidth="1"/>
     <col min="98" max="98" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="4" customWidth="1"/>
